--- a/biology/Médecine/Céphalée_chronique_quotidienne/Céphalée_chronique_quotidienne.xlsx
+++ b/biology/Médecine/Céphalée_chronique_quotidienne/Céphalée_chronique_quotidienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%A9phal%C3%A9e_chronique_quotidienne</t>
+          <t>Céphalée_chronique_quotidienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les céphalées chroniques quotidiennes (ou CCQ) sont des céphalées initialement épisodiques (céphalées de tension ou migraines) qui ont évolué dans un contexte d'abus d'antalgiques[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les céphalées chroniques quotidiennes (ou CCQ) sont des céphalées initialement épisodiques (céphalées de tension ou migraines) qui ont évolué dans un contexte d'abus d'antalgiques,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%A9phal%C3%A9e_chronique_quotidienne</t>
+          <t>Céphalée_chronique_quotidienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On parle de céphalées chroniques quotidiennes lorsque le patient souffre au moins 4 heures par jour, plus de 15 jours par mois depuis au minimum 3 mois.
-La plupart des patients se plaignent en fait de céphalées quasi quotidiennes, évoluant le plus souvent depuis plusieurs années (en moyenne 6 ans)[1].
+La plupart des patients se plaignent en fait de céphalées quasi quotidiennes, évoluant le plus souvent depuis plusieurs années (en moyenne 6 ans).
 La céphalée chronique quotidienne peut prendre plusieurs formes :
 Migraine transformée
 Céphalées de tension chroniques
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%A9phal%C3%A9e_chronique_quotidienne</t>
+          <t>Céphalée_chronique_quotidienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un problème majeur de santé publique, puisque l'on estime que 3 à 5 % de la population générale souffre de CCQ. En consultation spécialisée, 30 à 40 % des patients consultent pour des céphalées chroniques quotidiennes.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%A9phal%C3%A9e_chronique_quotidienne</t>
+          <t>Céphalée_chronique_quotidienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Deux facteurs principaux sont à l'origine de la transformation de céphalées épisodiques en céphalées chroniques quotidiennes :
 L'utilisation abusive de traitements antalgiques et/ou d'anti migraineuse de crise
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%A9phal%C3%A9e_chronique_quotidienne</t>
+          <t>Céphalée_chronique_quotidienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,12 +635,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise en charge de ce type de céphalées est complexe et relève d'avis spécialisés de neurologues ou de médecins spécialisés dans la douleur.
-Le traitement consiste à arrêter la prise de médicaments contre la douleur. Cela nécessite un véritable sevrage, en milieu hospitalier ou ambulatoire[2]. La durée d'hospitalisation est d'environ cinq à dix jours. Un suivi médical spécialisé et pluridisciplinaire est indispensable[2].
-Il est possible d'accompagner ce sevrage avec une prise d'antidépresseurs tricycliques, comme l'amitriptyline de 25 à 100mg/j en IV ou per os, ou du valproate de sodium[2]. Un suivi psychologique est à introduire pour lutter contre les comorbidités tels que l'anxiété, la dépression, un stress important...
-Concernant la prise en charge des céphalées de rebonds, un traitement non médicamenteux doit être mis en place pour maintenir le sevrage. Si la céphalées n'est pas supportable sans traitement, il est possible de réutiliser un antimigraineux, entraînant une prolongation de la période de sevrage[2]. 
+Le traitement consiste à arrêter la prise de médicaments contre la douleur. Cela nécessite un véritable sevrage, en milieu hospitalier ou ambulatoire. La durée d'hospitalisation est d'environ cinq à dix jours. Un suivi médical spécialisé et pluridisciplinaire est indispensable.
+Il est possible d'accompagner ce sevrage avec une prise d'antidépresseurs tricycliques, comme l'amitriptyline de 25 à 100mg/j en IV ou per os, ou du valproate de sodium. Un suivi psychologique est à introduire pour lutter contre les comorbidités tels que l'anxiété, la dépression, un stress important...
+Concernant la prise en charge des céphalées de rebonds, un traitement non médicamenteux doit être mis en place pour maintenir le sevrage. Si la céphalées n'est pas supportable sans traitement, il est possible de réutiliser un antimigraineux, entraînant une prolongation de la période de sevrage. 
 </t>
         </is>
       </c>
